--- a/revref_section.xlsx
+++ b/revref_section.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33868AC5-7BB4-465B-B839-0AA7EA5DA3ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A3264-C409-4A98-8CE3-B2656F0C1F79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="7" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="8" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="76">
   <si>
     <t>header1</t>
   </si>
@@ -135,32 +135,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>セクションの表示方法は、「セクションをページ内表示にする」方法と「セクションのページを別に作ってそのリンクを表示する」方法の2種類があります。</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>授業用コーステンプレートである「8 sections」と「15 sections」を選択すると、テンプレート内の8(もしくは15)sectionは、デフォルトでは「セクションのページを別に作ってそのリンクを表示する」方法で表示されています。</t>
   </si>
   <si>
     <t>course13.png</t>
-  </si>
-  <si>
-    <t>※ただし、新たに追加したセクションは、「セクションをページ内表示にする」方法で表示されます。</t>
   </si>
   <si>
     <t>course12.png</t>
@@ -287,13 +265,6 @@
     </rPh>
     <rPh sb="72" eb="74">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>反対に、「セクションのページを別に作ってそのリンクを表示する」には、セクションの三点メニューをクリックし、「リンクとして表示」をクリックします</t>
-    <rPh sb="0" eb="2">
-      <t>ハンタイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -474,42 +445,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>移動したい項目の上にカーソルを合わせると、十字の矢印のマークに変わります。</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジュウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ドラッグ＆ドロップで移動させたい位置に動かしてください</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;セクションをリンクとして表示させる方法&lt;/h3&gt;</t>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホウホウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -520,6 +456,299 @@
     <rPh sb="9" eb="11">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ただし、新たに追加したセクションは、「セクションをページ内表示にする」方法で表示されます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動したい項目の上にカーソルを合わせると、十字の矢印のマークに変わります</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すべてのセクションを一括で展開させたい場合は、右上に表示されている「すべてを展開する」をクリックしてください
+「すべてを展開する」が表示されていない場合は、「すべてを折りたたむ」をクリックすると「すべてを展開する」が表示されますので、クリックしてください</t>
+    <rPh sb="10" eb="12">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セクションの表示方法は、「セクションをページ内表示にする」方法と「セクションをリンクとして表示する」方法の2種類があります。</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「セクションをリンクとして表示する」には、セクションの三点メニューをクリックし、「リンクとして表示」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>授業用コーステンプレートである「8 sections」と「15 sections」を選択すると、テンプレート内の8(もしくは15)sectionは、デフォルトでは「セクションをリンクとして表示する」方法で表示されています。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;セクションを展開した状態にする方法&lt;/h3&gt;</t>
+    <rPh sb="10" eb="12">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セクション名の左隣に表示されている矢印が横を向いている「&gt;」の場合は、折りたたまれれている状態です
+「&gt;」をクリックして、セクションを展開させてください
+展開すると矢印が下を向いている状態「v」になり、セクション内すべての項目が表示されます</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="sectiontype"&gt;&lt;/a&gt;セクションを学生から隠す方法&lt;/h3&gt;</t>
+    <rPh sb="36" eb="38">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="edit mode"&gt;&lt;/a&gt;セクションの削除&lt;/h3&gt;</t>
+    <rPh sb="34" eb="36">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除したいセクションの横にある点が縦に３つ並んでいるメニュー（三点メニュー）をクリックして「削除」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>隠したいセクションの横にある点が縦に３つ並んでいるメニュー（三点メニュー）をクリックして「非表示」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学生が見れないセクションはセクション名の右横に「学生から秘匿」と表示されます</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ミギヨコ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セクションを非表示にするとセクション内のすべての項目も非表示かつ利用不可状態になります</t>
+    <rPh sb="6" eb="9">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目の横にある点が縦に３つ並んでいるメニュー（三点メニュー）をクリックして「利用可能」または「表示」をクリックすると、利用可能にはなりますが、学生のコースページには表示されません
+利用するには、項目ページのURLを入力することでアクセスできます</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>リヨウカノウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="63">
+      <t>リヨウカノウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sectionhidden1.png</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1016,7 +1245,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1036,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1065,21 +1294,35 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
@@ -1089,9 +1332,15 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
+      <c r="B13" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
@@ -1149,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1190,7 +1439,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
@@ -1220,7 +1469,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
@@ -1240,7 +1489,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1262,7 +1511,7 @@
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>10</v>
@@ -1434,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1475,7 +1724,7 @@
     <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
@@ -1505,7 +1754,7 @@
     <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
@@ -1516,13 +1765,13 @@
     <row r="11" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1602,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1632,7 +1881,7 @@
     <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1643,7 +1892,7 @@
     <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
@@ -1673,13 +1922,13 @@
     <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1688,7 +1937,7 @@
     <row r="11" spans="1:7" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -1728,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1758,7 +2007,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1766,7 +2015,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
@@ -1790,7 +2039,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
@@ -1798,7 +2047,7 @@
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1843,388 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A9EDB-E219-4750-9E93-E48F3540F6B4}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="12" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AD47A1-F5EF-4704-9C65-E978BFF1C35C}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B381338-A85F-4BD4-8AB8-3FC08C5D562D}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2245,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2275,15 +2143,394 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="12" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AD47A1-F5EF-4704-9C65-E978BFF1C35C}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B381338-A85F-4BD4-8AB8-3FC08C5D562D}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
@@ -2312,21 +2559,61 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
+      <c r="B12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
+      <c r="B14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
+      <c r="B15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
+      <c r="B16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
@@ -2339,9 +2626,6 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2354,9 +2638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CA264C-592C-46D6-B186-534A553459CA}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2375,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2404,21 +2686,35 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
@@ -2428,18 +2724,39 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
+      <c r="B13" s="13" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
+      <c r="B14" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
+      <c r="B16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
@@ -2464,6 +2781,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -2479,15 +2805,6 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2740,20 +3057,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
